--- a/src/main/resources/doc/product_category.xlsx
+++ b/src/main/resources/doc/product_category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D76DE74-0EDD-4285-B913-3F9A0DF9341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668E878-159A-4ACB-9242-6263B9F1ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1452">
   <si>
     <t>家用电器</t>
   </si>
@@ -4379,15 +4379,19 @@
     <t>手机 / 运营商 / 数码</t>
   </si>
   <si>
-    <t>category_l3</t>
+    <t>categoryL3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_l2</t>
+    <t>服务产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_l1</t>
+    <t>categoryL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryL1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4738,7 +4742,7 @@
   <dimension ref="A1:C1365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4753,10 +4757,10 @@
         <v>1448</v>
       </c>
       <c r="B1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -7712,7 +7716,7 @@
         <v>289</v>
       </c>
       <c r="B270" t="s">
-        <v>286</v>
+        <v>1449</v>
       </c>
       <c r="C270" t="s">
         <v>1446</v>

--- a/src/main/resources/doc/product_category.xlsx
+++ b/src/main/resources/doc/product_category.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668E878-159A-4ACB-9242-6263B9F1ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30946B4-262C-4B0A-AC09-4BBF3FF29687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="1452">
   <si>
     <t>家用电器</t>
   </si>
@@ -4741,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A1354" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1360" sqref="F1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7869,6 +7869,9 @@
       <c r="A284" t="s">
         <v>304</v>
       </c>
+      <c r="B284" t="s">
+        <v>303</v>
+      </c>
       <c r="C284" t="s">
         <v>1445</v>
       </c>
@@ -7877,6 +7880,9 @@
       <c r="A285" t="s">
         <v>305</v>
       </c>
+      <c r="B285" t="s">
+        <v>303</v>
+      </c>
       <c r="C285" t="s">
         <v>1445</v>
       </c>
@@ -7885,6 +7891,9 @@
       <c r="A286" t="s">
         <v>306</v>
       </c>
+      <c r="B286" t="s">
+        <v>303</v>
+      </c>
       <c r="C286" t="s">
         <v>1445</v>
       </c>
@@ -7892,6 +7901,9 @@
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>307</v>
+      </c>
+      <c r="B287" t="s">
+        <v>303</v>
       </c>
       <c r="C287" t="s">
         <v>1445</v>
